--- a/public/template_penjualan.xlsx
+++ b/public/template_penjualan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C4B7FB-E97A-4E0D-87EB-F9319A329A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25507D35-F149-44C7-9B25-5054872FBAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="12" windowWidth="23004" windowHeight="12948" xr2:uid="{555A7E24-E4F2-44CA-AEC0-10C689338AB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{555A7E24-E4F2-44CA-AEC0-10C689338AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>penjualan_tanggal</t>
   </si>
   <si>
-    <t>2024-10-18 13:15:28</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>ehem</t>
+    <t>saya</t>
+  </si>
+  <si>
+    <t>GBL</t>
+  </si>
+  <si>
+    <t>2024-10-23 12:15:00</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,16 +434,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
